--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ziba_Dehghani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB68DC-7521-449E-B745-B9DDBA30399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F597C-CD56-41CE-BE33-C66C70F50E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Brain injry-2</t>
-  </si>
-  <si>
-    <t>Motor injury-2</t>
   </si>
   <si>
     <t>DM-2</t>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>degree</t>
+  </si>
+  <si>
+    <t>Motor injury-1</t>
   </si>
 </sst>
 </file>
@@ -492,12 +492,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
     <col min="11" max="11" width="8.08984375" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="21" max="21" width="14.1796875" customWidth="1"/>
@@ -517,103 +520,103 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
